--- a/prog/data_processing/result/describe_predictors/2_delete.xlsx
+++ b/prog/data_processing/result/describe_predictors/2_delete.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>Тип данных</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Уголовная ответственность</t>
   </si>
   <si>
+    <t>Адрес проживания - Населенный пункт</t>
+  </si>
+  <si>
     <t>Адрес проживания - Тип населенного пункта</t>
   </si>
   <si>
@@ -160,7 +163,7 @@
     <t>[11.03.1987;30.05.2019]</t>
   </si>
   <si>
-    <t>военнослужащий, другое, не отслужил, невоеннообязанный, отсрочка, призывник, уволен в запас</t>
+    <t>военнослужащий, невоеннообязанный, уволен в запас, не отслужил, отсрочка, другое, призывник, nan</t>
   </si>
   <si>
     <t>[1.0;9.0]</t>
@@ -172,13 +175,13 @@
     <t>есть, нет</t>
   </si>
   <si>
-    <t>высшее, незаконченное высшее, неполное среднее, среднее, среднее специальное</t>
-  </si>
-  <si>
-    <t>акционер, другое, не имеет отношения, работник</t>
-  </si>
-  <si>
-    <t>безработный (временно не работающий), государственный служащий, заместитель руководителя, индивидуальный предприниматель, пенсионер, рабочий, руководитель, специалист, студент</t>
+    <t>среднее специальное, высшее, среднее, незаконченное высшее, неполное среднее, nan</t>
+  </si>
+  <si>
+    <t>не имеет отношения, работник, акционер, другое</t>
+  </si>
+  <si>
+    <t>специалист, рабочий, руководитель, заместитель руководителя, государственный служащий, пенсионер, студент, индивидуальный предприниматель</t>
   </si>
   <si>
     <t>[-998.0;50.0]</t>
@@ -187,13 +190,19 @@
     <t>[-1500.0;92207.0]</t>
   </si>
   <si>
-    <t>вдовец/вдова, женат/замужем, повторный брак, разведен/разведена, холост/не замужем</t>
-  </si>
-  <si>
-    <t>Агрогородок, Город, Городcкой поселок, Деревня, Курортный поселок, Поселок сельского типа, Рабочий поселок, Село, Сельский населенный пункт, Хутор</t>
-  </si>
-  <si>
-    <t>Без гражданства, Другое, РБ</t>
+    <t>женат/замужем, холост/не замужем, разведен/разведена, вдовец/вдова, повторный брак, nan</t>
+  </si>
+  <si>
+    <t>нет, есть</t>
+  </si>
+  <si>
+    <t>Витебск, минск, Жлобин, Брест, Новополоцк, Минск, Гомель, Молодечно, Слоним, Могилев, Гродно, Бобруйск, Ольгово, Шумилино, Новый Двор, Слуцк, Калинковичи, Селевцы, Восход, Пинск, Орша, Заславль, Свислочь, Лешня, Полоцк, Лида, Кобрин, Барановичи, Светлогорск, Барань, Пузырево, Хатежино, Жабинка, Тереховка, Богатырево, Копище, Тарасово, Сухополь, Борисов, Горки, Волковыск, Чернавчицы, Быстрица, Цыпки, Шищицы, Лужесно, Ерёмино, Новое Поле, Жерносеки, Костюковка, Столовичи, Мурава, Крупки, Смолевичи, Плебанцы, Ченки, Стрешин, Мозырь, Ставок, Подлесье, Берёза, Огородники, Пружаны, Бараново, Лесной, Арабники, Вяз, Новые Засимовичи, Евдокимовичи, Пасиничи, Новая Антоновка, Михейки, МОГИЛЕВ, Пекари, Скураты, Городок, Климовка, Лебедёвка, Гатово, Шумаки, Козловичи, ГОРОДЕЯ, Зазерка, Гожа, Хмельник, Руба, Носилово, Хрисо, Нивки, Дружный, Белоозерск, Буйничи, Подберезье, Белоозёрск, Углы, Петришки, Болбасово, Лунинец, Ваверка, Колозубы, Нехачево, Демидовщина, Василевичи, Бенякони, Суйково, Аннополь, Михановичи, Рожки 1, Новая Мильча, Улуковье, Ендриховцы, Ленинский, Трояновка, Колодищи, Обчак, Березовка, Оснежицы, Озеры, Ждановичи, Витьба, гомель, БРЕСТ, Городец, Коханово, Мухавец, Динаровка, Ковердяки, Запрудье, Таймоново, Лопатичи, Лисуны, Здитово, Копцевичи, Федьковичи, Зельва, Носовичи, Мачулищи, Раков, Ровбицк, Урицкое, Богатырская, Морможево, витебск, Бобровичи, Тереничи, слуцк, Калинино, Сырод, Тельмы-1, Самохваловичи, Мосты, Дещенка, Боровляны, Лошница, Перхурово, Заболотье, Кибы, Сеница, Ивацевичи, Передовой, Путники, Сокольники, Неманица, Махово, Тюрли, МОЗЫРЬ, Большие Сехновичи, Турково, Савищино, Котяги, Мичуринская, Ружаны, Страковичи, Студенец, Юровичи, Дубровня, Тарново, Несвиж, Селивоновка, Репля, Черни, ГОМЕЛЬ, Пекалин, Ганцевичи, Минойты, Мелешковичи, Батчи, Юндилы, Козьянки, Путришки, Белыничи, Дашковка, Беловежский, Большой Тростенец, Лиозно, Высокое, Рогачев, Красное, Озяты, Ореховск, Медков, Атолино, Молотковичи, Посеничи, Новка, Бабиничи, Большая Ухолода, Большие Мотыкалы, Подбела, Октябрьская, Жабчицы, Кировская, Лебедево, Чисть, Пинковичи, Вытроповщина, Дубровно, Цагельня, Вертелишки, Большие Летцы, Новоселье, кобрин, Козловка, Городчина, Старая Рудня, Тулово, Нивы, Озерецкая Слобода, Кличев, Фаниполь, МИНСК, Щомыслица, Зябровка, Солигорск, Чуриловичи, Степы, Лосичи, Большой Рожан, Цнянка, Оранчицы, Прокшино, Высочаны, Калиново, Софиевка, Березинское, Боровуха, Хомск, Вистычи, Смиловичи, Ковали, Добруш, Ельница, Дрибин, Суховчицы, Клейники, Мазолово, Козелужье, Иваново, Дягелец, Юбилейный, Страдубка, Старо-Борисов, Пески, Страдечь, Лабно-Огородники, Наровля, Омеленец, Андроновичи, Сенно, Щучин, Покры, Быхов, Хойники, Шебрин, Береза, Птичь, Красный Маяк, Гиревичи, Шевино, Липени, Скирмантово, Лес-Гай, Татарщина, Косаковка, Занки 1, Чепели, Городечно, Четверня, гродно, Бытча, Еремино, КАЛИНОВО, Озерцо, Бобовичи, Жемчужный, Федоры, Юшки, Осиповичи, Курково, Мормаль, Субочи, Белоусовщина, Большевик, Пацуи, Вейно, Беличи, Стеброво, ЖАБИНКА, жлобин, Прилучки, Райста, Папоротное, Працевичи, Привольный, Красносельский, Клепачи, Малые Мотыкалы, Деревянчицы, Полыковичи, Вишневка, Замошаны, Лукский, ОРЕХОВСК, Курпичи, Полецкишки, Малые Летцы, Старое Село, Грабовка, Новая Гожа, Присынок, Лесковка, Мышанка, Яцковичи, Большое Стиклево, Остромечево, Терешковичи, Логойск, Поколюбичи, Совлово, Фариново, Дитва, Дзержинск, Скрыдлево, Шайтерово, Головинцы, с/т "Южное-1", Романовичи, Подкраичи, Прудок, Ветка, Хорева, Городщина, брест, Канютичи, Верховье, Езерище, Кадино, Редьки, Ратомка, Зиновичи, Клинок, Паршино, Степанки, Залужье, Березки, Речица, Оберовщина, Зайцево, Соколово, Мижевичи, Малиновщина, Залесье, Прилесье, Искра, ЛЮБАВА, Богушевск, Поляна, БАРАНЬ, Масловичи, Липовцы, Зосимы, Судовица, Пудовня, Завидчицы, Лесины, Лесец, Жодино, Прихабы, Станьково, Новая Гута, Бусни, Коковчино, Могилёв, Борковичи, МОЛОДЕЧНО, Первомайский, Клюшниково, Глубокое, Россь, Липинки, Столин, Лучники, Подороск, Девятки, молодечно, Греск, Междулесье, Волма, Замосточье, Вилейка, Марьина Горка, Щерчово, Новое Хороброво, Ярцевичи, Кутневичи, Паричи, Негорелое, Городище, Копти, Старина, Боровая, Голынец, Галево, Бабичи, Ляховичи, Кричев, Макаренцы, Пионер, Ректа, Светиловичи, Шпитали, Медведка, Шклов, Лобановка, Житомля, Спорово, Гибуличи, Купятичи, Холопеничи, Овсянка, Раклевичи, Ворони, Островля, Крошин, Миоры, ФАНИПАЛЬ, Ленок, Киселевцы, Хвалево, Энергетиков, Радошковичи, Луговая Слобода, Волки, Изабелин, Гулевичи, Марково, Ямно, Тараново, Марьино, Наровчизна, ГРОДНО, ОРША, Рудня, Свищево, Свистелки, Крынки, Крыницы, Малые Радваничи, Прилуки, Брилево, Слобода, Комсомолец, Королев Стан, Вишенский, Старобин, Чаусы, Дрогичин, Заречанка, Гребёнка, Приозерная, Великий Лес, Крупский, Коптевка, Видомля, Антоновка, Синявка, Озерки, Присно 1, Рупейки, Лебедевка, Жировичи, Камень, Любово, Волковичи, Коммунар, Радуша, Ушковица, Задорожье, Бобовка, Белица, Салтановка, Уть, Берники, Ходосы, Малое Стахово, Студеники, Тишовка, Москаленята, Слобудка, Радково, Захаричи, Шерешево, Перетрутовский Воротын, Боровики, Скоки, Ленино, Грабск, Селищи, Старинцы, Лядно, Октябрь, Коссово, Шени, Лошаны, Большие Роги, Куплин, Южная, Бешенковичи, Тевли, Энергия, Ивье, Печищи, Козенки, Дуброва, Севостьяновичи, Устье, Кабановка, Ивановские Огородники, Шубники, ВИТЕБСК, Руденск, Вороны, Кореневка, Копыль, Залузье, Защебье, Удранка, Коробчицы, Каменец, Красное Знамя, Именин, Шепели, Добрейка, Победа, могилев, Чёрная Вирня, Вельямовичи, Криничный, Ячево, Мелькановичи, Макаричи, Узда, Никитиничи, Ивонцевичи, Буденного, Берестье, Семково, Лужок, Горбацевичи, Дубно, Зарубы, Верейки, Княжица, Олизаров Став, Заречье, Новополесский, Шатравино, Кировск, Селец, Городьки, Анусино, Шапечино, Хальч, Повитье, Глыбоцкое, Сидоровичи, Обухово, Большие Лепесы, Гора, Малые Автюки, Королево, Николаевка 3, Мотоль, Медно, Домашковичи, Дивин, Петралевичи II, Стайки, Пограничный, Гришаны, Боёвка, Засковичи, Понятичи, Полятичи, Рагозы, Лешница, Б ЛЕПЕСЫ, Бровки, Хабы, Заполье, Квасыничи, Вал, Великая Слива, Геранены, Солоники, Пчельник, Пиревичи, Новые Марковичи, Трилесино, Цегельня, Мошканы, Мстиславль, Дулевцы, Голынец 1, Прибор, Каваличи, ПЕРВОМАЙСКИЙ, Глуша, Околица, Леплевка, Малейковщизна, Птицефабрика, Лопатино, Первомайская, Сосновка, Турок, Брильки, Молчадь, Красный Берег, Зароново, Александровка, Червень, Столбцы, Мясота, Кулики, Сущево, Кирши, Роличи, Пятевщина, Булавки, Криница, Бердовка, Березино, Михновичи, горки, Микашевичи, Радеж, Брагин, Кривоносовцы, Подлабенье, Воложин, Усяжа, Малорита, Старые Новоселки, Скарина, Кирово, Плещицы, Веснянка, Малеч, Дрозды, Крюковичи, Сечки, Адверники, Рассветная, Большая Курница, Новое Пашково, Дятлово, Карповка, Лука, Велятичи, Ракитница, Тельмы-2, Дудичи, Проскурни, Сосновый Бор, Зубки, Островляны, Логишин, Тивидовка, Лебежаны, Туголица, Щеглики, Глуховка, Орехово, Малое Бабино, Вязье, Луговая Вирня, Большое Стахово, Забашевичи, Варковичи, Гомель  р/п Костюковка, Брановичи, Оболь, Иговка, Малая Берестовица, Ореховский, Преньки, Старые Дятловичи, Батуринка, Хотимск, Пугляи, Горы, Раевские, Вишевичи, Тимковичи, Поречаны, Залинейный, Долгиново, Пиваши, Старая Белица, Рясно, ГОРКИ, Курганье, Мильковщина, Бобрик, Турец-Бояры, Черноградь, Гоцк, Скабин, Волосовичи, Приямино, ТЕРЕХОВКА, Коленьки, Воронцевичи, Андреевщина, Славики, СТАРОСЕЛЬЕ, Малые Бортники, Геранёны, Розановщина, Вирков, Каменица-Жировецкая, Сухорукие, Островец, Понизовье, Елизово, Новая Ятвезь, Рудавин, Прилепы, Волчин, Нехолсты, КОПЫСЬ, БЕРЕЗА, Василевщина, Оса, Сосновый, Поставы, Осовец, Матеевичи, Хидры, Манчицы, Безверховичи, Осочники, Широкое, Подлужье, Тальковщина, Поморщина, Малые Якентаны, Ельск, Дукора, Костюковичи, Новоельня, Осовцы, Новосады, Головнинцы, Каменка, Тюхиничи, Алекшицы, Староселье, Косово, Юхновка, КАЛИНКОВИЧИ, Загородная, Почапово, Дроздово, Борисы, Пшенаи, Затишье, Косари, Головичи, Андроново, Забелье, Шеметовка, Радионовка, Ветрино, Луки, БОЛБАСОВО, Прокуды, Комаровка, Крупово, Корма, Полочаны, Шерстин, Яновичи, Речки, Гливин, Ворошилы, Пустошка, ПУДОВНЯ, Заслоновка, Гомель  м-н Костюковка, Радуга, Полонка, БЕРЁЗА, Старый Дворец, Петриков, Мир, Весея, Дубина Боярская, Люденевичи, Гузгаловка, Дачная, Зубревичи, Костени, Веркуды, Ланковщина, Новоселки, Вересница, Турец, Лесники, Якимова Слобода, Плебановцы, Людвиново, Лучежевичи, Прибытки, Домашаны, Николаевка 2, Орловичи, Новосёлки, Индура, Копысь, Даниловичи, Давид-Городок, Коминтерн, Литвины, Васьковщина, Нелидовичи, Большие Шиловичи, Вежки, Сморгонь, Рахманьки, Валерьяново, Нарочь, Брашевичи, Путчино, Кольно, Дубовцы, Чачково, г.Гомель, С/Т ЖУРАВИНКА, Матвеевцы, Олехновичи, Чирковичи, Латыголичи, Телуша, МИТЬКОВЩИНА, Светлый, барань, Чериков, Кочаны, Богдановка, Ореховка, -1, Луцевичи, Песочня, Севруки, Хайсы, Болота, Рясна, Мелешки, Зубово, Бастуны, Шульцево, Яново, Октябрьский, Каменная Горка, Любань, Колбово, Малевичи, Шикотовичи, Солоное, Мядель, Семков Городок, Крупица, Домоткановичи, Уваровичи, Домачево, Краснобережская Слободка, Чуденичи, Пожежин, Чечерск, Отор, Острошицкий Городок, Осница, Хоромск, Томашовка, Полыковичи 2, Головки, Тушково, Костровичи, Аксаковщина, Горяны, Королищевичи, Жгунь, Кривели, Радунь, Осинторф, Доросино, Голубичи, Телеши, Большое Можейково, Зацень, Фруктовый, Матюты, Жиличи, Нижняя Веравойша, Гезгалы, Стародворцы, Вядерево, Косеничи, жабинка, Старая Метча, Старые Терушки, Мазури, Голоцк, Янтарный, Буда-Кошелево, Потаповичи, Боровка, Добрая, Уза, ВЕЙНО, Большой Межник, Моисеево, Избино, Думановщина, Войтешин, Деревная, Нивищи, Слободщина, Бычиха, Шапуры, Новое Село, Бобровцы, АГ.МЕЖИСЕТКИ, Маслаки, Ратайчицы, Беневичи, Войтово, Б.ЗАПОТОЧИ, Мамаи, Городилово, Бороники, Павелково, Есипово, Рудня-Маримонова, Махновичи, Сонечный, Острошицы, Пантюхи, Дарево-Чиж, Сиреневка, Вороново, Большая Боровка, Хойно, Митьковщина, Дитрики, Дегтяревка, Пеница, Белинок, Крылово, Нача, Великие Автюки, ПОЛЫКОВИЧИ 2, Руденец, Острино, Долголесье, Орлово, Межисетки, Вишнёвка, Вяжище, Суховичи, Новые Лыщицы, Холмы, Матусово, Домашицы, Жуковка, Урожайная, Казеково, Бездеж, Теребунь, Глуск, Залипье, Сороги, Братылово, Добрино, светлогорск, Княгинин, Поповичи, Яблоновка, Синитычи, Близница, Малая Падерь, Гуды, Малые Косичи, Аношки, Лесок, Гинели, Мерчицы, Берестеново, в/ч 97 Дачное, Квасовка, Скиток, Красное Село, Федьково, Лясковичи, Подольцы, Малые Роги, Татарка, Городняны, Солы, Шарибовка, бобруйск, Конюхи, Копаткевичи, Узнаж, Долгое, Большая Берестовица, Селитренка, Белыновичи, Некраши, Уша, Лучин, Ушачи, Саволевка, Новое Лядно, Шиловичи, Горбовичи, Загритьково, Магдалин, Знаменка, Збунин, Марьяливо, Добринево, Корени, Петровичи, Подгорье, Тихиничи, Лужки, Русино, Гончары, Остров, Кожан-Городок, Гальки, Ивенец, Тресковщина, Першая Слободка, Татарск, Поболово, Сеньково, Пестуница, Новая, Голдово, Литва, Обуховичи, Домашевичи, Лещицы, Россоны, Мышковичи, Черноручье, Красное Березино, Железняки, Тудорово, Кустын, Замки, Должа, Новики, Браслав, Бабино-1, войнилово, Беляевка, Пралески, Великое Село, Морозово, Зачистье, Дыя, Сеньковщина, Новые Горяны, Новогрудок, КАРЧЕВЩИНА, Ларищево, Панышевщина, Старые Дороги, Шуневцы, Яечковичи, Бегомль, Новый, Загорщина, Лельчицы, Обруб-Березвечский, Коробы 2, Мишутки, Доржи, Муравщина, Басмановка, Сураж, Задомля, Стреличево, Шарковщина, Береговой, Ятвезь, Цесино, Чернеевичи, Красновка, Сегеневщина, Новые Луки, Колдычево, Емельяновичи, Торгошицы, Борисово, Новоколосово, Чкалово, Туров, Юзуфово, Рогинь, Островщина, Вязовец, Олекшицы, Бронная Гора, Поречье, СВЕТЛОГОРСК, Бацевичи, Любоничи, Освея, Нахов, Ходаково, Крапивно, Трокеники-1, Толочин, Линово, Карцевичи, Коротковичи, Осташковичи, Стригинь, Междуречье, Пышки, Верхнедвинск, Миколка, Арабовщина, Луково, Михеевка, Чики, Красная Слобода, ВЕТКА, Яловка, Патрики, Панкратовка, Балаши, Германовичи, ПОЛЫКОВИЧИ, Экимань-2, Дуброво, Озеро, Добромысль, Маковье, Даниловка, Роги, Шелково, Ордать, Наумовичи, Гусак, Теплень, Скориничи, Чашники, Хомичи, Березовичи, Мостище, Подречье, Старый Лепель, Ревятичи, Тимоново, Черный Бор, Песчанка, Полесье, Пелеса, Яцково-Замостные, В/Г №1 ДОМАНОВО, Азделино, Укропово, Антополь, Первомайск, Скидель, Великий Боков, Бытень, Великий Мох, Шкордь, Пенчин, Бельчица, Малое Ситно, Милевичи, Новодворцы, Максимовка, Краснодворцы, Закаблуки, Минковичи, Васильки, Липовая Колода, Козловичи 2-е, Великая Гать, БЕЛАЯ, ОСИНОВКА, Житьково, Дубок, Волька, Рыбное, Ляховщина, Бульково, Жердянский, Пристороны, Дубенцы, Малево, Грабовцы, Поповцы, Сухари, Кищина Слобода, Лепель, Любишино, Кулешово, Парафьяново, Комаровичи, Кобыловка, Новый Свержень, Ипуть, Савченки, Дорошевичи, Ясковичи, Сава, Тычины, Гороховка, Калюга, Кошевичи, Блювиничи, Выня, Дубеи, Бервищи, ЧЕРСК, Межево, Грудиновка, Мыслевичи, Чижевичи, Добрынь, Липки, Губичи, Павлово, Зелёный Курган, Кулешовка, Приднепровский, Першаи, Шиповичи, Новицковичи, Журавковичи, Лосево, Замостье, Прудище, Ивахновичи, Межа, Литвиновичи, Новый Остров, Боровцы, Блонь, Большие Радваничи, Стецки, Будилово, Лариновка, Брюхово, Плесовичская Слободка, Марковщина, Кваторы, Качино, Василишки, Олтуш, Казаки, болбасово, Бердичи, Рудка, Довск, Бруски, Светоч, Михальки, Серафимово, Малый Двор, Волколата, Брусы, Журавичи, Барсуки, Деречино, Гацук, Белое Болото, Поляи, Зелёнка, Граничи, Заветное, Селище, Шершни, Красная Буда, Хвойники, Рудня Антоновская, Грановка, Житковичи, Еремичи, Телеханы, Поляны, Кривск, Славгород, Пустынки, Антонишки, Ильич, Кудричи, Краснополье, Козловщина, Светлосельский, Старая Рудица, Торкачи, Опытный, Плиса, БЕРЕЗКИ, Непли, Глазовка, Свираны, Ошмяны, Островно, Плессы, Леньки, Смольгово, Драпово, Гаврильчицы, Цна, Плесы, Заболоть, Войнилово, Заостровечье, Заслоново, Новоселы, Семукачи, Заямочное, Топилишки, Сковородки, ЕРЕМИНО, Журавинка, Новая Бухоловка, Моторовщина, Кореличи, ОКТЯБРЬСКИЙ, Данейки, Химы, Осиновка, Ровковичи, Шарипы Большие, Особино, Станковцы, Малая Своротва, Малая Лапеница, Дубовляны, ЛАНЬКОВО, Омговичи, Шалыпы, Гомель  микр.Костюковка, Клецк, Нагорные, Черняны, Михалево, Векшицы, Мирный, Ходилони, Большие Косичи, Стытычево, Подлазники, СЛУЦК, Александрия, Севрюки, Черкассы, Слободка, аг.ЛУЧНИКИ, Бродница, Старые Фаличи, Чернишки, Свирь, Трабы, Беляны, Никитиха, Богушово, ОСИНТОРФ, Хатутичи, Замужанье, Дерутская, Новая Гусевица, Гольшаны, Старый Остров, Застенки, Барбаров, Позняки, Малая Боровка, Сумароково, Кучарино, калинковичи, Добромысли, Ратичи, Мочулино, Черниковщина, Миколаевичи, Борки, Чижовка, Новолукомль, Шишево, Артюхи, Дягильно, Ореховская, Плиссы, Сорочино, Вежны, Бобренята, Рачки, Лоев, Большая Колпеница, Выгоничи, Выверы, Большая Угринь, Желудок, Каролин, Моргилёв, Щитомиричи, Большие Бортники, Повишни, Малые Степанишки, Чурки, Жуков Луг, Хожово, Субботы, Городная, ДРУЖНЫЙ, Лемешевичи, Илья, Стан, Сосновая, Сопоцкин, Ульяновка, Ровины, Брыли, Лавриновичи, Усяж, Костюшки, Присно, Никодимово, Садовый, Кошевники, Лесница, Пальминка, Гнезно, Метявичи, Зеленочи, РУЖАНЫ, Натальевск, Кричев-2, Шершуны, Гудовичи, Кривляны, Озерный, Говяды, Романы, Симоновичи, Каменюки, Бобовики, Чирвоная Горка, Запрудяны, Станиславово, Докудово, Боричевичи, Галимцы, Солтаново, Залье, Лущики, Яршевичи, Браково, Буды, Яковлевичи, Лекерта, Огородчики, Изабелино, Домановичи, Холхлово, Заельник, Большие Яковчицы, Бородичи, Мокрое, Валище, Лавстыки, Крулевщина, Половинный Лог, Милейково, САНАТОРИЙ БУГ, Дворцы, Горелец, Светлый Бор, Исерно, Хмелево, Войская, Вязынка, Соломоречье, Танежицы, Перковичи, Судники, Соловьи, Мишутино, Котелево, Косыничи, Яченка, Липовка, Язвино, Новохросты, Погораны, Узнацк, Прудовка, Ског, Теолин, Клинск, Ведрич, Большое Малешево, Дудинка, Житин, Дыманово, Кайково, Сковорощина, Старая Шараевщина, СУХОВИЦЫ, Кошелево, Ляды, Новая Буда, Бродок, Струнье, Дайнова, Пламя, Салейки, Ольшанка, Дисна, Осиповщина, Городнянский Мох, Мелихово, Котера, Гурины, Головчин, Комиссарово, Застодолье, Вычулки, Грушево, Стриганец, Орепичи, Ржавка, Корсаковичи, Гимбуты, Новый Городок, Лынтупы, Малые Словени, Климовичи, Хмелевка, Круговец-Калинино, Мосток, Пугачи, Жерлаки, Ганковичи, Затурья, Красновцы, Мурована, Раховичи, Великие Гаяны, Ольшево, Островы, Гощево, Ясный Лес, Корабли, Погост-2, Б.ЯКОВЧИЦЫ, Раевка, Вишенька, Опечки, Тесновая 1, Ореховно, Прилукская Слобода, Великое Лядо, Зеленая, Любуж, Рожанка, Звонец, Горочичи, Новинка, Черетянка, Каравайница, Ломаши, Ракузовка, Пищалово, Малиновка, Колки, Задровье, Лесище, Кузьминичи, Губерня, Чижевщина, Турцевичи, Звездная, Захарничи, Знамя, Малые Зводы, Клюковка, Вензовец, Якимовичи, Кострица, Копиевичи, Порослово, Ст. Пески, Большая Обрина, Экимань-1, Чернещино, Прибудок, БЕШЕНКОВИЧИ, Летковщина, Рогозно, Пелище, Санюки, Писаревщина, Чёнки, Кулаки, Черск, Луцк-Козловский, Лунно, Озаричи, Заспа, Дворец, Буденовка, ЗАСЛАВЛЬ, Лыщицы, Глинище, Великие Кошевники, Седча, Ковчицы-2, Парохонск, Князево, Залески, Лабенщина, Торчилово, Шуневичи, Вольно, Долбизно, Борщовка, Курганы, Скворцы, Ольховцы, Головичполье, Селявичи, Берёзки, Плесовичи, Малая Слива, Островские, Белевичи, Свирки, Межица, Демидовка, Воробьевичи, Полетники, Иванковщина, Липнишки, Ковалики, Кощичи, Левки, Липов, Дубица, Медухово, Богди, Цель, Сухвальня, Дорожки, Язно, Щедрин, Затитова Слобода, Микелевщина, Жажелка, Чучаны, Кривичи, Мельники, Полыковичские Хутора, Клетное, Филипповичи, Обчин, Лапичи, Плещеницы, Майск, Раубичи, Г СОЛИГОРСК, Верховичи, Калиновая, Городея, Вежи, Чурилово, Воля, Буховичи, Терюха, Нарутовичи, Гирово, Закозель, Нетечь, Неверовичи, Доманово, Домаши, Зазерье, Хомутины, Драбовщина, Андрейки, Круглое, ДЕРЕВНЯ МАЛЫЕ ЛЕТЦЫ, Смольяны, Кончаны, Комары, Рудск, Теребени, Вендорож, Корнадь, Дутчино, Петралевичи 2, Мерешино, Зорька, Липники, Овсемирово, Белево, Николаевка, Равнополье, Пироги, Дегтяное, Гарутишки, Приборье, Орлево, Колония Казимировка, ГОРОД ВИТЕБСК, Костеши, Довнары, Вороновичи, Валевачи, Корово, Рыча Государственная, Новая Мышь, Гортоль, Гричино, Малые Яковичи, Дмитриевка 1, Жабин, Тенюковщина, Колос, Морги, Шарупы, Дмитриевка-2, Евсимовичи, Дворище, Шемберово, Стотсберг, Докшицы, Косино, Город ВИТЕБСК, Асаново, Герасимово, Бокшицы, Осово, Сидельники, Черёмушки, Вехотница, Озерница, Зарица, Чернозёмовка, Шикили, Черемушки, Шапурово, Дяжки, Малый Быков, Василинки, Томковичи, Кубличи, Чеховщина, Смиловичи гп, Могилев г, Мозырь г, Вендорож аг, Витебск г, Михеевка аг, Волковыск г, Ельковщина аг, Горки г, Миловиды, Прудяны, Браги, Пешки, Воевода, г.БОБРУЙСК, Семигостичи, Ставы, Хозянинки, Вердомичи, Чемеры, Дубровка, ВОЛОВИЧЕВЦЫ, Каменная Русота, Худовцы, Суринка, Ленино аг, Новополоцк г, Ремель, МАЧУЛИЩИ, Новобеличи, Вишнево, Мосты Левые, Гончаровка, Белое, Гомель г, Грибаны, Масалыки, Вильча, Советский, Правдинский, Ломачино, Дейки, Юзефово, Буяны, Деменичи, Шарейки, Богуши, Зеленка, Криницы, Коренёвка, Подлесная, Чепелево, Тишовка д, Белоуша, Кемейши, Селиба, Клешево, Селяхи, Марковичи, Дербин, Васильевка, Щатково, Кухчицы, Синкевичи, Борщёвка, Новополье, Скабы, Гольцы, Санаторий Буг, Гатовичи, Озерцы, Другая Слободка, Леонтьевичи, Езеры, Чаусы г, Кабаки, Гать, Будники, Верболоты, Хоромицкие, Озерщина, Красный Бережок, Бобрики, Медвежий Лог, Новашино, Ёдки, Брест г, Жодино г, УСТЬЕ, г БРЕСТ, Волпа, Мстиж, Лычковцы, Хабовичи, Дреколье, Пуховичи, Бродовка, Бобр, Крупенино, мозырь, Голубица, Ляхчицы, Красулино, Малая Курница, Коледино, Лопушно, Азино, Красный Дар, Свиравщина, Свенск, Дребск, Подыгрушье, Пролетарий, Тумин, Бирча, Пневичи, Комсомольск, Погорелое, Ганчицы, Тыльковка, Соболяны, Староград, Одельск, Пережир, НОВКА, Острово, Каташи, Замошье, Зеньковичи, Бармуты, Дойничево, Машелево, Погодица, Пашкишки, Пересады, Магеровка, Пиамонт, Закальное, Рудавка, Снов, Полота, Заградье, Рудня Маримонова, Александрово, Фальки, Теглевичи, Остромичи, Мошевое, Большая Лысица, Мороськи, Шведы, Восток, Плотница, Большое Городно, Гомель  р.п.Костюковка, Ремейкишки, Холодники, Моствилишки, Добросневичи, Серяги, Любушаны, Ужинец, Корчицы, Хотюхово, Вить, Клесино, Турин, Бородулино, Погост-1, Р-1  17 КМ ШОССЕ МИНСК-ДЗЕРЖИНСК, Иваничи, Каменные Лавы, Любиж, Большие Карныши, Ботвиновка, Головачи, Леликово, Люта, Мойсичи, Шупейки, Доброволя, Нисимковичи, Полонск, ДУБРОВНО, Хомяково, Гроди, Еськовцы, Краковка, Луковец, Смоловка, ТЕПЛЕНЬ, Коробчино, Паперня, ТЮРЛИ, Воротищи, Массоляны, Дусаевщина, Новинки, Малые Зимовищи, Зарестье, Борисовка, Техтин, Великорита, Веремеевка, Усохи, Павловцы, Мочаны, Ленина, Синегово, Заозерье, Шавнево, Ануфрово, Лапоровичи, Шундры, Голицы, Сколдичи, Баличи, Клястицы, Пархимовцы, Хотляны, слободка, Обруб, Румино, Груздово, Видевщина, Любатовщина, Застружье, Борздовка, Романовка, Загорье, Медведов, Избицкое, Печковка, Улазовичи, Дворчаны, Погоща, Гринки, Старые Юрковичи, Ботвиново, Кемелишки, Жарковщина, Щибрин, Подлипки, Резы, Лахи, Лань, Речень, Гута, Леваши, Огаревичи, Новозахарполье, Вознесенский, Любашево, Самаровичи, Белицк, Русаки, Незбодичи, Мурованая Ошмянка, Пацыничи, Красница, Ананино, Муравилье, НОВОСЕЛКИ, Самуэлево, Берёзовка, Холстово, Можейки, Сухиничи, Солнечный, Тажиловичи, Пограничная, Куково, Радуга п, Хвоево, Зарудичи, Озеравцы, Турино д., Яглевичи, Козлы, Иванова Слобода, Мацевичи, Интернациональный, Тышковичи, Новая Метча, Ольхово, Малые Шумилишки, Шпаковщина, Дукойни, Партизановка, Положевичи, Грицкевичи, Новый Гутков, новые Засимовичи, Большие Озерки, Липень, Индрубка, Большие Степанишки, Бояры, Мировщина, Пастовичи, Хартица, Перерост, Ударный, Ялуцевичи, Любяча, Мостиловичи, Малиновая, Хвастовичи, Кочищи, Пригородная, Мижеричи, Воропаево, Драчева, Колядичи, Логовище, Подитва, Выжловичи, Заболотники, Грамоще, Миничи, Черневичи, Кравцовка, Холмеч, Жилин Брод, Невда, Уречье, Шапчицы, Новые Терушки, Солон, Дричин, Петьки, Опса, Островок, Евличи, Рубеж, Бондари, Гориденяты, Валевка, Чеботовичи, Комарин, Ракевичи, Лукашино, Малые Яковчицы, Луцковляны, Витунь, Босяч, Зимница, Лыщики, Кузьмичи, Рябиновка, Парковая, Сутки, Старая Гута, Большая Лотва, Масевичи, Рыбна, Новоспасск, аг., Нарцизово, Глушковичи, Геленово, Ельня, Озераны, Рябцево, Зажевичи, Ясень, Млынок, Останковичи, Жмуровка, Семенча, Старые дороги, Видзы-Ловчинские, Тростино, Сорочи, Радковщина, Кривоносы, Гринки 1, Дотишки, Малые Немки, Зеленки, Литовщина, Малашковичи, Семенки, Тиховоля, Матьковцы, Милошевичи д., Солтанишки, Камено, Паличин, Мироненки, Старое Высокое, Гусаки, Бриксичи, Порозово, Большой Полсвиж, Щорсы, Ситники, Ястребель, Гольчичи, Демидов, Лозки, Придворье, Маревиль, Великая Слобода, Осиновщизна, Тонеж, Жуковщина, Зеленый Бор, Засетье, Карашево, Сивица, Новые Докторовичи, Копань, Большие Эйсмонты, Гервяты, Талька, Ванелевичи, Ганьковичи, Великий Бор, Кургания, Мазолово д., Соколовка, Кошели, Дречаны, Ляховцы, Литвяны, Куковячино, Боровка 2-я, Мосты Правые, Мухлядишки, лельчицы, Тешелово, Рязанцы, Обидовичи, Неряж, Замостяны, Потаповка, Партизанский, Саска Липка, Осмоловичи, Домжерицы, Будча, Друйск д., Ивановка, Ширки, Хотыничи, Макарово, Повстынь, Теклинов, Роготно, Домашки, Дзержинск д, Карвели, Забрезье, Лозы, Крутиловичи, Лойки, Потейки, КРЫЖОВКА, Большое Городище, \\Новые Рачковичи, Пекличи, Вишневец, Занки 2, Любищицы, Вселюб, Ходосы д., Следюки, Старая Водва, Забоенье, Большие Амхиничи, Альбрехтово, Ольховка, Осошники, Кушляны, Жукевичи, Пасека, Вязькутин-1, БОБРУЙСК, Подсвилье, Ольшаны, Тереховичи, Бостынь, Долговичи, Симоничи, Гацук д., Ханчицы, Грицевичи, Копачи д., Озерница д., Демброво, Воронино, Корытное, Шудовцы, Далики, Слонево, Жорновка, Лежневичи, Строкты, Юратишки, Грицки, Озеречье, Старица, Маньковичи, Макаровка, Брилев, Радеево, Дорогляны, Мельново, Артуки, Припечино, Митьковичи, Гостиловичи, Сукачи, Тычинки, Свиридовичи, Благовичи, Новогородейский, Оношки, Хоневичи, Бобра, Верх-Лида, Мисевичи, Скородное, Неговка, Лумна, Шевели, Рыжанки, Кобыльники, Суша, Струпень, Зембин, Могилицы, Большие Бобровники, Искань, Голосятино, хальч, Гритуны д, Славково, Камаи, Ермоловичи, Синицы, Елишево, Гривковичи, Вулька-Телеханская, Юрковичи, Зывышье, Конно, Турищево, КОРОЛЕВСТАН, Жупраны, Гирмантовцы, Столбун, Сахаровка, Нагораны, Кабак, Бакуны, Еланы, Новая Попина, Чернявка, Вишов, Саки, Братняя Гора, Малыши, Хотомель, Мишни д., Новый Вендорож, Быстромовцы, Велюнь, Качановичи, Старое Лядно, Квачи, Зори, Стаи, Савгути, Киселева Буда, Золотой Рог, Маклаки, Лудчицы, Гвозница, Слонимцы, Новодевятковичи, Леоновичи, Габриелевка, Верейцы, Заелица, Новый Кудин, Юбилейная, Верхолесье, Языль, Крутой Берег, Ахремовцы, Смоличи, Голынь, Тетерки, Микуличи, Снежково, Короватичи, лоев, Сидировичи, Нагорное, Бирюзово, Пыхань, Яловица, Ластовки, Павловичи, Горново, Шилино, Муражи, Стальбовщина, Храпково, Едловичи, Щитковичи, Купчели, Щепичи, Ипполитовка, Сеньковщина д., Гославщина, Новый Быхов, Вороничи, Отминово, Прощицы, Гудогай, Мадора, Найда, Блевчицы, Маяк, Заельня, Боброво, Литовск, Приозерский, Накрышки, Ирдица, Высокая Липа, Годылево, Давыдовка, Валавск, Веть, Рутка 1, глубокое, Мазурщина, Тюкантовичи, Чичиновщина, Хомички, Туча, Кутняны, Лютня, Каленики, Воротынь, Каплановцы, Рудевичи, Курпеши, Елизово п., Рассвет, Жеребковичи, Елка, \\Буйничи, Красная Беларусь, Больтишки, Черевки, Клетыще, Тумашевцы, Пруды, ЗАЛУЗЬЕ, Ветеревичи, Подоресье, Хотень, Тихны, Каролина, Прусы, Гребени, Черейщина, Андраны, Селец д., Ерши, Курманово, Репенщина, Верхи, Феликсово, Мушино, Майский, Ругаец, Станция Ошмяны, Задворье, Березина, Зарачье, Партизанская, Новые Максимовичи, Мальковичи, Лысково, Малые Лезневичи, Дунай, Стригово, Лукомер, Малейки, Доры, Грабов, Клепчаны, Малюшичи, Величковичи, Сошно, Тесово, Смолица, Любча, Полонечка, Ударное, Боровое, Ромельки, Веремейки, Солтановщина, Павлюшки, Великие Немки, Бельск, Родня, Межаны, Мачулищи пгт, Сейловичи, Молодово, Кнубово, Хотислав, Хвиневичи, Вощиничи, Бельчицы, Шашки д., Секеричи, Мишни, Глуша п., Великая Липа, Большая Мысса, Слобода-Кучинка, Великая Уса, Дунаек, Друйск, Гайнинец, Тальминовичи, Дёрновичи, Виков, Беница, Турск, Дялино, Зоричи, Петковичи, Адамовичи, Сунаи, Сосны, Рогачи, Бор, Моисеевка, Колодищи п., Сапрыновичи, Мазолово аг., Черленка, Турсковый, Дмитровичи, камоски, Денисово, Константово, Юрковщина, Дружный п., Грини, Довгялы, Ерхи, Веска, Осов, Довбени, Велута, Дуниловичи, Костюки, Будевцы, Бакуны д, Михалишки, Мажа, Хоросица, казинщина, Деревная д., Капустино, Тишковка, Головли, Метличино, Ольшаники 2, Нелепово, Костени д., Охоново, Муляровка, Лиски, Вязынь, Новые Дороги, Валавск д., Бакшты, Тарусичи, Чухово, Легаты, Гурновщина, Новоселки-2, дривяты, Залучино, ШкОзеро, Калинина, Колядичи д., Зарытово, Воробьи, Небытов, Старый Довск, Ковшово, Ворняны, Заямное д., Субботники, Норцевичи, Комсеничи, Карацк, Бринев, Войневичи, Доброгоща, Улла, Кореневичи, Пригожее, Лишки, Подозерье п., шепелево, Слобода Богушовка, Бигосово, Солоная, Глухи, Старо-Борисов д., Большая Людвиновка, Повиланцы, Ильюшино, Клишевичи, Красовщина, Кольчуны, Горани, Кривая Береза, Тушевая, Пушкари, Глядовичи, Осово д, селище, Майское, Госсортучасток, Денисковичи, Ваверка д., Стреньки, Краи, Великие Крагли, Вязычин, Листвин, новосёлки, Заберезь, Лоев пгт, Большое Барово, Оброво, Скрибовцы, Полужье, Оздятичи, Кухты, Жусины, Зборов, Гили, Лесань, Гронов, Лесное, Велетин, Здудичи, Гвоздово, Староволя, Велин, Большие Завшицы, Шестиснопы, Лукомль, Макаши, Бабыничи, Ченчицы, Раневичи, Зачепичи, Словатичи, Завидичи, Заямное, Добрынский, Мали, Грушевник, Радостово, Радомля, Пересвятое, Шиловичи(спиртзавод), Скипоровичи, Беларучи, Могильно, Петуховщина, Снигяны, Алексеевичи, Лелюки, узда, Михневичи, Наваселле, рогачев, Сорочье, Борколабово, Сверплевичи, Голынка, Александровичи, Климы, Стражевичи, Ячное, Марьянполье, воложин, Подлужье д., Мыслово, Аславеняты, Лунин, Минти, Ольманы, Ручей, Сластены, Привольный п., Галынка, Михедовичи, Фаворы, Задворники, Каленковичи, Бродец, Подроссь, Загорины, Глинянки, Заборье, Сёмоновщина, Дягли, Сутин, Каштановка, Калиновка, Лесково, Радутичи, ГОРОД МИНСК, Буда-Лельчицкая, Константиновка, Кумпяны, Чудин, Глинь, Озеречье п., Довск аг., Толкачёвщина, Несята, Червоное, Судково, Сакуны, Войтковичи, Грушевка, Гошево, Узнога, Большая Комаровка, Голубы, Карпеши, Дубницкое, Загалье, Морозовичи, Канава, Иказнь, Смоляница, Большие Лесковичи, Бронное, Люсино, Городея аг., Милошевичи, Большая Рогозница, Лучай, Ивольск, Халаимовщина, Янковичи, Буйки, Морочь, Шашки, Коммуна, Зеленый Дуб, Видейки, Краснолуки, Титковщина, Черея, Пролетарская Коммуна, Толкочевичи 1, Начь, Гудогай ж/д ст., Бадёрый, Половковичи, Заширье, Зарубино, Грива, Малый Жабин, Шаловичи, Рязанцы д., Миратичи, Струки, Судиловичи, Луговая, Бурки, Дерковщина, Лылойти, Мушичи, Сергеевичи, Радевичи, Хвоенск, Велавск, Ричёв, Дворное Село, Подъельцы д., Лавришево, Гневчицы, Юшевичи, Венски, Новый Барсук, Малый Полсвиж, Лоша, Коньки, Лобановка д., вТимоново, Боровые, Малый Старый Шклов, Замшено, Бобовня, Переволока, Новодворки, Красная Дуброва, Холопья, Поселичи, Весея д., Гадиловичи, Деньковцы, Биордо, Налибоки, Зубелевичи, Б ЛОТВА, Альба, Потока, Вейшичи, Сигневичи, Семежево, Скриплица, Ханевичи, Подстаринь, Передрейка, Кривое Село, Риминка, Новиянка, Новая Веска, Вербки, Цветино, квасыничи, Грусково, Завережье, Крегли, Завойть, Грицковичи, Нестеровщина, Лаздуны, Гадилуны, Керняны, Ковнятин, Хотилы, Маложин, Бабга, Старая Буда, Кмитянка, Турки, Видзы, Победное, Покрашево, Палуши, Коневцы, Поляниновичи, Жирмуны, Кухтичи, Дуравичи, Грозово, Бабаевичи, 10-й Блок-Пост, Курчевцы, Белоусовщина д., Хорева д., Дындылишки, Медюки, Тешевле, Лобжа, Халопеничи, Алексейки, Верхнее, Шамовщина, Вязьма, Переганцы, Скоморошки, Копылы, Глиница, Можеевка снп, Прилуки д., Рембоковщина, Неман, Пески - 2, Кунцевщина, Свитичи, Паниквы, Смоляны, Маньковщина, Цепра, Сокольничи, Елизово рп, Деречин, Доропеевичи, ЯКОВИЧИ, Шкава, Красная Звезда, Милоград, Мотыли, Крупейки, Солнечный п., Коротичи, ДЕРЕВНЯ БОРОВЛЯНЫ, Долки, Моисеевщина, Маркуны, Раевщина, Бушмичи, Мадейки, Привольная, Любковщина, Сычики, Пласкиня, Свилы, Жилихово, Малые Круговичи, Магеры, Волосово, Лихосельцы, Драчково, Тупичаны, Трабы д., Старый Свержень, Михалин, Млехово, Глинка, Тросно, Дрила-1, Клайши, Валавская Рудня, Охово, Боханы, Передельск, Яковичи, Калилы, Казейки, Далекие, Погородно, Движки, Великая Крушиновка, Долматовщина, Лаша, Новый Болецк, Байбы, Песочное, Липляны, Ямное, Матырино, Верхняя Тощица, Репище, Пацева Слобода, Фащевка, Заяченье, Добрая Воля, Михеевичи, Петревичи, Подрукша д, Саковичи, Стодоличи, Орешники, Рожки 2, Русаковичи, Полянка, Головчицы, Старые Храковичи, Стараволя, Войнилы, Друя, Глухская Селиба, Великий Двор, Новые-Шарабаи, Слабодка, Лотвичи, Глиняны, Глинная, Тобулки, Комаровщина, Турна Большая, Бородичи д., Горная Рута, Редковичи, ФОЛЬВАРКИ, Загородье, Кротов, Своятичи, Синичино, Теклевка, Муляры, Липовец, Копачи, Каролино, Кожан-Городок д., Идолта, Заполичи, Святица, Тристивка, Поддубье, Малая Ухолода, Мыслобож, Рудавец, Лельчицы., Переслега, Усушек, Садовая, Клочки, Бараны, Семировичи, Бардилы, Ужанка, Рулевщина, Гирейши, Плитница, Дражно, Лыцевичи, Немержа, Кричин, Залютичи, Бубны, Погост, Островки, Кульшичи, Буда-Софиевка, Прогресс, Лобча, Шкураты, Мерзляково, Бабуничи, Боярская, Гостино, Избудище, Ольгердово, Слабода, Руда Яворская, Хорошки, Большая Зимница, Цюприки, Горбачево, Иоды, Вардомичи, Ошмянцы, Омелинно, Великое Журово, Кончицы, Дайлидки, Ходевичи, Тушевичи, Погорелка, Шилин, Васильковка, Болотчицы, Степужичи, Шелухи, ГОРОД МОЛОДЕЧНО, Иваки, Лядец, Подомхи, Великие Новики, Космовичи, Колубели, Полсвиж, Неглюбка, Листопадовичи, Ижа, Кузевичи, Птицкие, Чаша, Мостовляны, Добучин, Трестивец, Козики, Застенок Брили, Розета, Велевщина, Пруд, Райцы, Жатерево, Засулье, Лесная, Комсомольская, Секеричи д., Борок, Полошково, Новое пашково, Барташи, Запруды, Запурье, Семенча-2, Гавриловцы, Кунторовка, Колбча, Сосновый Бор п., Храповищено, Новые Огаревичи, Калининск, Коленкишки, Ананчицы, Гродзянка, Ребуса, Круки, Порплище, Чернова, Юголин, ПЛЯНТА, Верх-Крупово, Малая Тростяница, Святая Воля, Лыково, ГОРОД ГОРКИ, Берестовица, Мыщицы, Касынь, Соничи, Збураж, Ивановские огородники, Яныши, Рудавицы, Гривки, Филипковичи, Слабожанка, Приборово, Раздяловичи, Забелышин, Буйновичи, Терасполье, Куровое, Единство, Богино, Свердлово, Преснаки, Краснобережье, Долбнево, Вынищи, Ветче, Мазичи, Семеновичи, Езапов, Бискупцы, Щежерь 1, Доргишки, Старокрасное, Малая Лотва, Лотевка, Ковзаны, Рымовичи, Славинск, Моторово, Нурово, Завышье, Любовичи, Буда Головчицкая, Мачужичи, Липово, Раковичи, Румок, Рымуни, ГОРОД МАРЬИНА ГОРКА, Харлаповичи, Гутница, Богданово, Гинцевичи, Забродье, Коханишки, сонечный, Вулька-Обровская, Мелевцы, Удело, Мстибово, Перки, Переволочня, Орхово, Псыщево, Раковищи, Житовля, Лешно, Стрельцы-1, Г ЖОДИНО, Любиничи, ЛЮБАРЫ, Беленок, Меховое, Ферма-Гай, Верещаки, Ржавка 1, Ларьяново, Рудное, Бочешники, Хилец, Сидоровка, Приболовичи, Осо</t>
+  </si>
+  <si>
+    <t>Город, Деревня, Городcкой поселок, Агрогородок, Рабочий поселок, Поселок сельского типа, Сельский населенный пункт, nan, Курортный поселок, Село, Хутор</t>
+  </si>
+  <si>
+    <t>РБ, Другое, Без гражданства, nan</t>
   </si>
   <si>
     <t>[04.01.2016;21.12.2020]</t>
@@ -202,6 +211,9 @@
     <t>[03.01.1878;30.09.2002]</t>
   </si>
   <si>
+    <t>nan, есть, нет</t>
+  </si>
+  <si>
     <t>[0.0;44.0]</t>
   </si>
   <si>
@@ -232,19 +244,19 @@
     <t>[-549.81;600000.0]</t>
   </si>
   <si>
-    <t>1, 2, более 2-х</t>
-  </si>
-  <si>
-    <t>Ж, М</t>
-  </si>
-  <si>
-    <t>безработный, индивидуальный предприниматель, пенсионер, работающий по найму, служащий, учащийся</t>
+    <t>более 2-х, 1, 2, nan</t>
+  </si>
+  <si>
+    <t>М, Ж</t>
+  </si>
+  <si>
+    <t>служащий, работающий по найму, nan, учащийся, пенсионер, безработный, индивидуальный предприниматель</t>
   </si>
   <si>
     <t>[0;1693]</t>
   </si>
   <si>
-    <t>739-100, 739-200, 739-200-202, 739-200-203, 739-200-228, 739-300, 739-400, 739-600, 739-800, 739-800-831, 739-900, 739-900-500, 739-900-527, 739-900-535, 739-900-536, 739-900-537, 739-900-538, 739-900-905, 739-900-906, 739-900-907, 739-900-932, 739-900-933</t>
+    <t>739-600, 739-900, 739-900-500, 739-400, 739-900-536, 739-300, 739-900-932, 739-200-202, 739-800, 739-200, 739-800-831, 739-900-538, 739-900-905, 739-900-906, 739-900-535, 739-900-537, 739-200-228, 739-900-527, 739-200-203, 739-900-933, 739-900-907, 739-100</t>
   </si>
   <si>
     <t>-</t>
@@ -605,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +642,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>195030</v>
@@ -647,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>234900</v>
@@ -664,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>236396</v>
@@ -681,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>108124</v>
@@ -698,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>155538</v>
@@ -715,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>227405</v>
@@ -732,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -749,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>70250</v>
@@ -766,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -783,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -800,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>369</v>
@@ -817,13 +829,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>769</v>
@@ -834,13 +846,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>63143</v>
@@ -851,10 +863,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -868,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -885,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -902,16 +914,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>6097</v>
       </c>
       <c r="E18">
-        <v>80329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -919,16 +931,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>68942</v>
+        <v>80329</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -936,16 +948,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>68942</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -953,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -973,13 +985,13 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
       </c>
       <c r="E22">
-        <v>134681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -990,13 +1002,13 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>173674</v>
+        <v>134681</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1004,16 +1016,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E24">
-        <v>145639</v>
+        <v>173674</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1021,16 +1033,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E25">
-        <v>132363</v>
+        <v>145639</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1038,16 +1050,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>159481</v>
+        <v>132363</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1055,16 +1067,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E27">
-        <v>166015</v>
+        <v>159481</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1072,16 +1084,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>135529</v>
+        <v>166015</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1089,16 +1101,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
       </c>
       <c r="E29">
-        <v>131648</v>
+        <v>135529</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1109,13 +1121,13 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>132363</v>
+        <v>131648</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1123,16 +1135,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>145639</v>
+        <v>132363</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1140,16 +1152,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>145639</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1157,16 +1169,16 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1174,16 +1186,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>117790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1191,16 +1203,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>117790</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1208,16 +1220,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>89220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1225,16 +1237,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>89220</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1242,15 +1254,32 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
         <v>22</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>0</v>
       </c>
     </row>
